--- a/medicine/Psychotrope/Encépagement/Encépagement.xlsx
+++ b/medicine/Psychotrope/Encépagement/Encépagement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enc%C3%A9pagement</t>
+          <t>Encépagement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'encépagement d'une parcelle plantée en vigne, d'une exploitation ou d'un vignoble, est le bilan des parts de plantation des différents cépages.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enc%C3%A9pagement</t>
+          <t>Encépagement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,11 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, c'est l'Institut national de l'origine et de la qualité (INAO) qui se charge de définir les conditions de l'encépagement[1].
-Encépagement défini par l'AOC
-Selon le label d'appellation d'origine contrôlée (AOC), l'encépagement se divise en trois catégories qui doivent respecter certaines proportions de la superficie qui revendique l'appellation[1] :
-les cépages principaux, avec une superficie supérieure à 50% de la superficie totale et parfois jusqu'à plus de 80%
-les cépages complémentaires, avec une superficie limitée à environ 40% de la superficie totale
-les cépages accessoires, avec une superficie limitée à environ 10% de la superficie totale
-Évolution en France
-En 2013, 815 000 hectares de vignes plantées sont recensés dont 170 cépages noirs et 145 cépages blancs[1].
-En 2020, 796 000 hectares de vignes plantées sont recensés, soit une diminution de 2,3% par rapport à 2013[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, c'est l'Institut national de l'origine et de la qualité (INAO) qui se charge de définir les conditions de l'encépagement.
 </t>
         </is>
       </c>
@@ -532,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enc%C3%A9pagement</t>
+          <t>Encépagement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +553,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Encépagement défini par l'AOC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le label d'appellation d'origine contrôlée (AOC), l'encépagement se divise en trois catégories qui doivent respecter certaines proportions de la superficie qui revendique l'appellation :
+les cépages principaux, avec une superficie supérieure à 50% de la superficie totale et parfois jusqu'à plus de 80%
+les cépages complémentaires, avec une superficie limitée à environ 40% de la superficie totale
+les cépages accessoires, avec une superficie limitée à environ 10% de la superficie totale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enc%C3%A9pagement</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Évolution en France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, 815 000 hectares de vignes plantées sont recensés dont 170 cépages noirs et 145 cépages blancs.
+En 2020, 796 000 hectares de vignes plantées sont recensés, soit une diminution de 2,3% par rapport à 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enc%C3%A9pagement</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Dans le monde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'organisation internationale de la vigne et du vin, l'encépagement mondial a beaucoup changé depuis les années 2000 à cause de l’arrachage de vignobles et des restructurations dû à l'évolution du goût des consommateurs pour certaines variétés de cépages[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'organisation internationale de la vigne et du vin, l'encépagement mondial a beaucoup changé depuis les années 2000 à cause de l’arrachage de vignobles et des restructurations dû à l'évolution du goût des consommateurs pour certaines variétés de cépages.
 </t>
         </is>
       </c>
